--- a/US/data/BOC/FTD/FTDE/UGDSCSB_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UGDSCSB_M_historical.xlsx
@@ -2586,85 +2586,89 @@
         <v>-67728</v>
       </c>
       <c r="IT2" t="n">
-        <v>-68036</v>
+        <v>-67549</v>
       </c>
       <c r="IU2" t="n">
-        <v>-48996</v>
+        <v>-48325</v>
       </c>
       <c r="IV2" t="n">
-        <v>-62597</v>
+        <v>-61748</v>
       </c>
       <c r="IW2" t="n">
-        <v>-72228</v>
+        <v>-71917</v>
       </c>
       <c r="IX2" t="n">
-        <v>-73726</v>
+        <v>-73255</v>
       </c>
       <c r="IY2" t="n">
-        <v>-75595</v>
+        <v>-74887</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-88497</v>
+        <v>-87677</v>
       </c>
       <c r="JA2" t="n">
-        <v>-86299</v>
+        <v>-85739</v>
       </c>
       <c r="JB2" t="n">
-        <v>-86720</v>
+        <v>-86034</v>
       </c>
       <c r="JC2" t="n">
-        <v>-88258</v>
+        <v>-87308</v>
       </c>
       <c r="JD2" t="n">
-        <v>-86920</v>
+        <v>-86201</v>
       </c>
       <c r="JE2" t="n">
-        <v>-84154</v>
+        <v>-83246</v>
       </c>
       <c r="JF2" t="n">
-        <v>-77957</v>
+        <v>-78141</v>
       </c>
       <c r="JG2" t="n">
-        <v>-70832</v>
+        <v>-70753</v>
       </c>
       <c r="JH2" t="n">
-        <v>-86759</v>
+        <v>-85751</v>
       </c>
       <c r="JI2" t="n">
-        <v>-83759</v>
+        <v>-84138</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-87216</v>
+        <v>-86282</v>
       </c>
       <c r="JK2" t="n">
-        <v>-96307</v>
+        <v>-95967</v>
       </c>
       <c r="JL2" t="n">
-        <v>-94573</v>
+        <v>-94472</v>
       </c>
       <c r="JM2" t="n">
-        <v>-98778</v>
+        <v>-98722</v>
       </c>
       <c r="JN2" t="n">
-        <v>-103581</v>
+        <v>-103596</v>
       </c>
       <c r="JO2" t="n">
-        <v>-87523</v>
+        <v>-88683</v>
       </c>
       <c r="JP2" t="n">
-        <v>-103992</v>
+        <v>-104282</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-100108</v>
+        <v>-99509</v>
       </c>
       <c r="JR2" t="n">
-        <v>-101868</v>
+        <v>-101818</v>
       </c>
       <c r="JS2" t="n">
-        <v>-84811</v>
-      </c>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
+        <v>-85127</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>-118471</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>-100983</v>
+      </c>
       <c r="JV2" t="inlineStr"/>
       <c r="JW2" t="inlineStr"/>
       <c r="JX2" t="inlineStr"/>
@@ -3450,85 +3454,89 @@
         <v>-66858</v>
       </c>
       <c r="IT3" t="n">
-        <v>-67375</v>
+        <v>-66800</v>
       </c>
       <c r="IU3" t="n">
-        <v>-47933</v>
+        <v>-47142</v>
       </c>
       <c r="IV3" t="n">
-        <v>-61641</v>
+        <v>-60711</v>
       </c>
       <c r="IW3" t="n">
-        <v>-71254</v>
+        <v>-70923</v>
       </c>
       <c r="IX3" t="n">
-        <v>-73050</v>
+        <v>-72529</v>
       </c>
       <c r="IY3" t="n">
-        <v>-74809</v>
+        <v>-74046</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-87739</v>
+        <v>-86878</v>
       </c>
       <c r="JA3" t="n">
-        <v>-85509</v>
+        <v>-84902</v>
       </c>
       <c r="JB3" t="n">
-        <v>-85342</v>
+        <v>-84635</v>
       </c>
       <c r="JC3" t="n">
-        <v>-87164</v>
+        <v>-86192</v>
       </c>
       <c r="JD3" t="n">
-        <v>-86060</v>
+        <v>-85319</v>
       </c>
       <c r="JE3" t="n">
-        <v>-83179</v>
+        <v>-82242</v>
       </c>
       <c r="JF3" t="n">
-        <v>-76958</v>
+        <v>-77094</v>
       </c>
       <c r="JG3" t="n">
-        <v>-69803</v>
+        <v>-69707</v>
       </c>
       <c r="JH3" t="n">
-        <v>-85616</v>
+        <v>-84566</v>
       </c>
       <c r="JI3" t="n">
-        <v>-82672</v>
+        <v>-83016</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-86070</v>
+        <v>-85079</v>
       </c>
       <c r="JK3" t="n">
-        <v>-95152</v>
+        <v>-94736</v>
       </c>
       <c r="JL3" t="n">
-        <v>-93794</v>
+        <v>-93590</v>
       </c>
       <c r="JM3" t="n">
-        <v>-97529</v>
+        <v>-97371</v>
       </c>
       <c r="JN3" t="n">
-        <v>-102522</v>
+        <v>-102479</v>
       </c>
       <c r="JO3" t="n">
-        <v>-86576</v>
+        <v>-87641</v>
       </c>
       <c r="JP3" t="n">
-        <v>-102903</v>
+        <v>-103155</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-98971</v>
+        <v>-98376</v>
       </c>
       <c r="JR3" t="n">
         <v>-100561</v>
       </c>
       <c r="JS3" t="n">
-        <v>-83748</v>
-      </c>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
+        <v>-84029</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>-117220</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>-99983</v>
+      </c>
       <c r="JV3" t="inlineStr"/>
       <c r="JW3" t="inlineStr"/>
       <c r="JX3" t="inlineStr"/>
@@ -4314,85 +4322,89 @@
         <v>135976</v>
       </c>
       <c r="IT4" t="n">
-        <v>129578</v>
+        <v>129807</v>
       </c>
       <c r="IU4" t="n">
-        <v>131250</v>
+        <v>131659</v>
       </c>
       <c r="IV4" t="n">
-        <v>133259</v>
+        <v>133498</v>
       </c>
       <c r="IW4" t="n">
-        <v>94540</v>
+        <v>94751</v>
       </c>
       <c r="IX4" t="n">
-        <v>90802</v>
+        <v>91011</v>
       </c>
       <c r="IY4" t="n">
-        <v>104858</v>
+        <v>105196</v>
       </c>
       <c r="IZ4" t="n">
-        <v>112983</v>
+        <v>113254</v>
       </c>
       <c r="JA4" t="n">
-        <v>118129</v>
+        <v>118411</v>
       </c>
       <c r="JB4" t="n">
-        <v>121337</v>
+        <v>121652</v>
       </c>
       <c r="JC4" t="n">
-        <v>132623</v>
+        <v>132851</v>
       </c>
       <c r="JD4" t="n">
-        <v>126885</v>
+        <v>127227</v>
       </c>
       <c r="JE4" t="n">
-        <v>132554</v>
+        <v>132901</v>
       </c>
       <c r="JF4" t="n">
-        <v>128176</v>
+        <v>128144</v>
       </c>
       <c r="JG4" t="n">
-        <v>124423</v>
+        <v>124254</v>
       </c>
       <c r="JH4" t="n">
-        <v>152151</v>
+        <v>152838</v>
       </c>
       <c r="JI4" t="n">
-        <v>144658</v>
+        <v>144153</v>
       </c>
       <c r="JJ4" t="n">
-        <v>145395</v>
+        <v>145977</v>
       </c>
       <c r="JK4" t="n">
-        <v>148267</v>
+        <v>148298</v>
       </c>
       <c r="JL4" t="n">
-        <v>144829</v>
+        <v>144481</v>
       </c>
       <c r="JM4" t="n">
-        <v>148834</v>
+        <v>148549</v>
       </c>
       <c r="JN4" t="n">
-        <v>142434</v>
+        <v>142637</v>
       </c>
       <c r="JO4" t="n">
-        <v>165317</v>
+        <v>164449</v>
       </c>
       <c r="JP4" t="n">
-        <v>157405</v>
+        <v>157227</v>
       </c>
       <c r="JQ4" t="n">
-        <v>159820</v>
+        <v>160357</v>
       </c>
       <c r="JR4" t="n">
-        <v>148166</v>
+        <v>148272</v>
       </c>
       <c r="JS4" t="n">
-        <v>151572</v>
-      </c>
-      <c r="JT4" t="inlineStr"/>
-      <c r="JU4" t="inlineStr"/>
+        <v>151898</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>180628</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>174478</v>
+      </c>
       <c r="JV4" t="inlineStr"/>
       <c r="JW4" t="inlineStr"/>
       <c r="JX4" t="inlineStr"/>
@@ -5178,85 +5190,89 @@
         <v>755</v>
       </c>
       <c r="IT5" t="n">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="IU5" t="n">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="IV5" t="n">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="IW5" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="IX5" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="IY5" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="IZ5" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="JA5" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="JB5" t="n">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="JC5" t="n">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="JD5" t="n">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="JE5" t="n">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="JF5" t="n">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="JG5" t="n">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="JH5" t="n">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="JI5" t="n">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="JJ5" t="n">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="JK5" t="n">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="JL5" t="n">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="JM5" t="n">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="JN5" t="n">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="JO5" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="JP5" t="n">
-        <v>892</v>
+        <v>941</v>
       </c>
       <c r="JQ5" t="n">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="JR5" t="n">
-        <v>735</v>
+        <v>841</v>
       </c>
       <c r="JS5" t="n">
-        <v>890</v>
-      </c>
-      <c r="JT5" t="inlineStr"/>
-      <c r="JU5" t="inlineStr"/>
+        <v>1005</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>1330</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>1382</v>
+      </c>
       <c r="JV5" t="inlineStr"/>
       <c r="JW5" t="inlineStr"/>
       <c r="JX5" t="inlineStr"/>
@@ -6042,85 +6058,89 @@
         <v>135221</v>
       </c>
       <c r="IT6" t="n">
-        <v>128767</v>
+        <v>129010</v>
       </c>
       <c r="IU6" t="n">
-        <v>130553</v>
+        <v>130977</v>
       </c>
       <c r="IV6" t="n">
-        <v>132921</v>
+        <v>133174</v>
       </c>
       <c r="IW6" t="n">
-        <v>94471</v>
+        <v>94691</v>
       </c>
       <c r="IX6" t="n">
-        <v>90738</v>
+        <v>90954</v>
       </c>
       <c r="IY6" t="n">
-        <v>104669</v>
+        <v>105015</v>
       </c>
       <c r="IZ6" t="n">
-        <v>112711</v>
+        <v>112991</v>
       </c>
       <c r="JA6" t="n">
-        <v>117833</v>
+        <v>118127</v>
       </c>
       <c r="JB6" t="n">
-        <v>121115</v>
+        <v>121444</v>
       </c>
       <c r="JC6" t="n">
-        <v>132348</v>
+        <v>132593</v>
       </c>
       <c r="JD6" t="n">
-        <v>126614</v>
+        <v>126975</v>
       </c>
       <c r="JE6" t="n">
-        <v>132194</v>
+        <v>132567</v>
       </c>
       <c r="JF6" t="n">
-        <v>127860</v>
+        <v>127851</v>
       </c>
       <c r="JG6" t="n">
-        <v>124010</v>
+        <v>123861</v>
       </c>
       <c r="JH6" t="n">
-        <v>151723</v>
+        <v>152434</v>
       </c>
       <c r="JI6" t="n">
-        <v>144178</v>
+        <v>143701</v>
       </c>
       <c r="JJ6" t="n">
-        <v>144841</v>
+        <v>145477</v>
       </c>
       <c r="JK6" t="n">
-        <v>147636</v>
+        <v>147741</v>
       </c>
       <c r="JL6" t="n">
-        <v>144103</v>
+        <v>143771</v>
       </c>
       <c r="JM6" t="n">
-        <v>148176</v>
+        <v>147906</v>
       </c>
       <c r="JN6" t="n">
-        <v>141863</v>
+        <v>142079</v>
       </c>
       <c r="JO6" t="n">
-        <v>164540</v>
+        <v>163682</v>
       </c>
       <c r="JP6" t="n">
-        <v>156512</v>
+        <v>156286</v>
       </c>
       <c r="JQ6" t="n">
-        <v>159063</v>
+        <v>159510</v>
       </c>
       <c r="JR6" t="n">
         <v>147431</v>
       </c>
       <c r="JS6" t="n">
-        <v>150682</v>
-      </c>
-      <c r="JT6" t="inlineStr"/>
-      <c r="JU6" t="inlineStr"/>
+        <v>150893</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>179298</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>173097</v>
+      </c>
       <c r="JV6" t="inlineStr"/>
       <c r="JW6" t="inlineStr"/>
       <c r="JX6" t="inlineStr"/>
@@ -6906,85 +6926,89 @@
         <v>203704</v>
       </c>
       <c r="IT7" t="n">
-        <v>197614</v>
+        <v>197357</v>
       </c>
       <c r="IU7" t="n">
-        <v>180246</v>
+        <v>179984</v>
       </c>
       <c r="IV7" t="n">
-        <v>195857</v>
+        <v>195246</v>
       </c>
       <c r="IW7" t="n">
-        <v>166768</v>
+        <v>166668</v>
       </c>
       <c r="IX7" t="n">
-        <v>164528</v>
+        <v>164266</v>
       </c>
       <c r="IY7" t="n">
-        <v>180453</v>
+        <v>180082</v>
       </c>
       <c r="IZ7" t="n">
-        <v>201480</v>
+        <v>200930</v>
       </c>
       <c r="JA7" t="n">
-        <v>204428</v>
+        <v>204150</v>
       </c>
       <c r="JB7" t="n">
-        <v>208057</v>
+        <v>207686</v>
       </c>
       <c r="JC7" t="n">
-        <v>220882</v>
+        <v>220159</v>
       </c>
       <c r="JD7" t="n">
-        <v>213805</v>
+        <v>213428</v>
       </c>
       <c r="JE7" t="n">
-        <v>216708</v>
+        <v>216146</v>
       </c>
       <c r="JF7" t="n">
-        <v>206133</v>
+        <v>206285</v>
       </c>
       <c r="JG7" t="n">
-        <v>195255</v>
+        <v>195008</v>
       </c>
       <c r="JH7" t="n">
-        <v>238910</v>
+        <v>238589</v>
       </c>
       <c r="JI7" t="n">
-        <v>228417</v>
+        <v>228291</v>
       </c>
       <c r="JJ7" t="n">
-        <v>232611</v>
+        <v>232259</v>
       </c>
       <c r="JK7" t="n">
-        <v>244574</v>
+        <v>244264</v>
       </c>
       <c r="JL7" t="n">
-        <v>239401</v>
+        <v>238953</v>
       </c>
       <c r="JM7" t="n">
-        <v>247612</v>
+        <v>247271</v>
       </c>
       <c r="JN7" t="n">
-        <v>246015</v>
+        <v>246233</v>
       </c>
       <c r="JO7" t="n">
-        <v>252840</v>
+        <v>253132</v>
       </c>
       <c r="JP7" t="n">
-        <v>261397</v>
+        <v>261509</v>
       </c>
       <c r="JQ7" t="n">
-        <v>259928</v>
+        <v>259865</v>
       </c>
       <c r="JR7" t="n">
-        <v>250034</v>
+        <v>250091</v>
       </c>
       <c r="JS7" t="n">
-        <v>236383</v>
-      </c>
-      <c r="JT7" t="inlineStr"/>
-      <c r="JU7" t="inlineStr"/>
+        <v>237024</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>299099</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>275461</v>
+      </c>
       <c r="JV7" t="inlineStr"/>
       <c r="JW7" t="inlineStr"/>
       <c r="JX7" t="inlineStr"/>
@@ -7770,85 +7794,89 @@
         <v>1624</v>
       </c>
       <c r="IT8" t="n">
-        <v>1472</v>
+        <v>1546</v>
       </c>
       <c r="IU8" t="n">
-        <v>1759</v>
+        <v>1865</v>
       </c>
       <c r="IV8" t="n">
-        <v>1294</v>
+        <v>1361</v>
       </c>
       <c r="IW8" t="n">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="IX8" t="n">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="IY8" t="n">
-        <v>975</v>
+        <v>1022</v>
       </c>
       <c r="IZ8" t="n">
-        <v>1030</v>
+        <v>1062</v>
       </c>
       <c r="JA8" t="n">
-        <v>1086</v>
+        <v>1121</v>
       </c>
       <c r="JB8" t="n">
-        <v>1600</v>
+        <v>1607</v>
       </c>
       <c r="JC8" t="n">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="JD8" t="n">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="JE8" t="n">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="JF8" t="n">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="JG8" t="n">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="JH8" t="n">
-        <v>1571</v>
+        <v>1589</v>
       </c>
       <c r="JI8" t="n">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="JJ8" t="n">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="JK8" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="JL8" t="n">
-        <v>1504</v>
+        <v>1592</v>
       </c>
       <c r="JM8" t="n">
-        <v>1907</v>
+        <v>1994</v>
       </c>
       <c r="JN8" t="n">
-        <v>1630</v>
+        <v>1675</v>
       </c>
       <c r="JO8" t="n">
-        <v>1724</v>
+        <v>1808</v>
       </c>
       <c r="JP8" t="n">
-        <v>1982</v>
+        <v>2068</v>
       </c>
       <c r="JQ8" t="n">
-        <v>1894</v>
+        <v>1980</v>
       </c>
       <c r="JR8" t="n">
-        <v>2042</v>
+        <v>2098</v>
       </c>
       <c r="JS8" t="n">
-        <v>1954</v>
-      </c>
-      <c r="JT8" t="inlineStr"/>
-      <c r="JU8" t="inlineStr"/>
+        <v>2103</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>2582</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>2382</v>
+      </c>
       <c r="JV8" t="inlineStr"/>
       <c r="JW8" t="inlineStr"/>
       <c r="JX8" t="inlineStr"/>
@@ -8634,85 +8662,89 @@
         <v>202080</v>
       </c>
       <c r="IT9" t="n">
-        <v>196142</v>
+        <v>195810</v>
       </c>
       <c r="IU9" t="n">
-        <v>178487</v>
+        <v>178119</v>
       </c>
       <c r="IV9" t="n">
-        <v>194562</v>
+        <v>193885</v>
       </c>
       <c r="IW9" t="n">
-        <v>165725</v>
+        <v>165614</v>
       </c>
       <c r="IX9" t="n">
-        <v>163789</v>
+        <v>163483</v>
       </c>
       <c r="IY9" t="n">
-        <v>179478</v>
+        <v>179060</v>
       </c>
       <c r="IZ9" t="n">
-        <v>200450</v>
+        <v>199869</v>
       </c>
       <c r="JA9" t="n">
-        <v>203342</v>
+        <v>203029</v>
       </c>
       <c r="JB9" t="n">
-        <v>206457</v>
+        <v>206079</v>
       </c>
       <c r="JC9" t="n">
-        <v>219513</v>
+        <v>218784</v>
       </c>
       <c r="JD9" t="n">
-        <v>212675</v>
+        <v>212293</v>
       </c>
       <c r="JE9" t="n">
-        <v>215373</v>
+        <v>214809</v>
       </c>
       <c r="JF9" t="n">
-        <v>204818</v>
+        <v>204945</v>
       </c>
       <c r="JG9" t="n">
-        <v>193813</v>
+        <v>193568</v>
       </c>
       <c r="JH9" t="n">
-        <v>237339</v>
+        <v>237001</v>
       </c>
       <c r="JI9" t="n">
-        <v>226850</v>
+        <v>226718</v>
       </c>
       <c r="JJ9" t="n">
-        <v>230911</v>
+        <v>230556</v>
       </c>
       <c r="JK9" t="n">
-        <v>242788</v>
+        <v>242477</v>
       </c>
       <c r="JL9" t="n">
-        <v>237897</v>
+        <v>237361</v>
       </c>
       <c r="JM9" t="n">
-        <v>245705</v>
+        <v>245277</v>
       </c>
       <c r="JN9" t="n">
-        <v>244385</v>
+        <v>244558</v>
       </c>
       <c r="JO9" t="n">
-        <v>251116</v>
+        <v>251324</v>
       </c>
       <c r="JP9" t="n">
-        <v>259415</v>
+        <v>259441</v>
       </c>
       <c r="JQ9" t="n">
-        <v>258034</v>
+        <v>257886</v>
       </c>
       <c r="JR9" t="n">
         <v>247992</v>
       </c>
       <c r="JS9" t="n">
-        <v>234430</v>
-      </c>
-      <c r="JT9" t="inlineStr"/>
-      <c r="JU9" t="inlineStr"/>
+        <v>234921</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>296518</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>273079</v>
+      </c>
       <c r="JV9" t="inlineStr"/>
       <c r="JW9" t="inlineStr"/>
       <c r="JX9" t="inlineStr"/>
@@ -9498,85 +9530,89 @@
         <v>-870</v>
       </c>
       <c r="IT10" t="n">
-        <v>-661</v>
+        <v>-749</v>
       </c>
       <c r="IU10" t="n">
-        <v>-1063</v>
+        <v>-1183</v>
       </c>
       <c r="IV10" t="n">
-        <v>-956</v>
+        <v>-1037</v>
       </c>
       <c r="IW10" t="n">
-        <v>-974</v>
+        <v>-994</v>
       </c>
       <c r="IX10" t="n">
-        <v>-676</v>
+        <v>-726</v>
       </c>
       <c r="IY10" t="n">
-        <v>-786</v>
+        <v>-841</v>
       </c>
       <c r="IZ10" t="n">
-        <v>-758</v>
+        <v>-799</v>
       </c>
       <c r="JA10" t="n">
-        <v>-790</v>
+        <v>-837</v>
       </c>
       <c r="JB10" t="n">
-        <v>-1378</v>
+        <v>-1399</v>
       </c>
       <c r="JC10" t="n">
-        <v>-1094</v>
+        <v>-1116</v>
       </c>
       <c r="JD10" t="n">
-        <v>-860</v>
+        <v>-882</v>
       </c>
       <c r="JE10" t="n">
-        <v>-975</v>
+        <v>-1004</v>
       </c>
       <c r="JF10" t="n">
-        <v>-999</v>
+        <v>-1047</v>
       </c>
       <c r="JG10" t="n">
-        <v>-1029</v>
+        <v>-1046</v>
       </c>
       <c r="JH10" t="n">
-        <v>-1143</v>
+        <v>-1185</v>
       </c>
       <c r="JI10" t="n">
-        <v>-1087</v>
+        <v>-1122</v>
       </c>
       <c r="JJ10" t="n">
-        <v>-1146</v>
+        <v>-1203</v>
       </c>
       <c r="JK10" t="n">
-        <v>-1155</v>
+        <v>-1231</v>
       </c>
       <c r="JL10" t="n">
-        <v>-779</v>
+        <v>-882</v>
       </c>
       <c r="JM10" t="n">
-        <v>-1249</v>
+        <v>-1351</v>
       </c>
       <c r="JN10" t="n">
-        <v>-1059</v>
+        <v>-1117</v>
       </c>
       <c r="JO10" t="n">
-        <v>-947</v>
+        <v>-1042</v>
       </c>
       <c r="JP10" t="n">
-        <v>-1089</v>
+        <v>-1127</v>
       </c>
       <c r="JQ10" t="n">
-        <v>-1137</v>
+        <v>-1133</v>
       </c>
       <c r="JR10" t="n">
-        <v>-1307</v>
+        <v>-1257</v>
       </c>
       <c r="JS10" t="n">
-        <v>-1063</v>
-      </c>
-      <c r="JT10" t="inlineStr"/>
-      <c r="JU10" t="inlineStr"/>
+        <v>-1098</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>-1251</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>-1000</v>
+      </c>
       <c r="JV10" t="inlineStr"/>
       <c r="JW10" t="inlineStr"/>
       <c r="JX10" t="inlineStr"/>
